--- a/cam_data_3rd.xlsx
+++ b/cam_data_3rd.xlsx
@@ -227,7 +227,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11103,11 +11102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="282181584"/>
-        <c:axId val="282182368"/>
+        <c:axId val="177629272"/>
+        <c:axId val="237115096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282181584"/>
+        <c:axId val="177629272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11149,7 +11148,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282182368"/>
+        <c:crossAx val="237115096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11157,7 +11156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282182368"/>
+        <c:axId val="237115096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11208,7 +11207,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282181584"/>
+        <c:crossAx val="177629272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18826,11 +18825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303788352"/>
-        <c:axId val="303787960"/>
+        <c:axId val="237680752"/>
+        <c:axId val="237712472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303788352"/>
+        <c:axId val="237680752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18872,7 +18871,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303787960"/>
+        <c:crossAx val="237712472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18880,7 +18879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303787960"/>
+        <c:axId val="237712472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18931,7 +18930,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303788352"/>
+        <c:crossAx val="237680752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21321,11 +21320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303795608"/>
-        <c:axId val="303808152"/>
+        <c:axId val="236740264"/>
+        <c:axId val="237386856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303795608"/>
+        <c:axId val="236740264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21367,7 +21366,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303808152"/>
+        <c:crossAx val="237386856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21375,7 +21374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303808152"/>
+        <c:axId val="237386856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21426,7 +21425,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303795608"/>
+        <c:crossAx val="236740264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23848,11 +23847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314353600"/>
-        <c:axId val="314347328"/>
+        <c:axId val="236734608"/>
+        <c:axId val="259373792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314353600"/>
+        <c:axId val="236734608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23894,7 +23893,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314347328"/>
+        <c:crossAx val="259373792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23902,7 +23901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314347328"/>
+        <c:axId val="259373792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23953,7 +23952,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314353600"/>
+        <c:crossAx val="236734608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26312,15 +26311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42194,8 +42193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
